--- a/data/trans_camb/P17_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.863864889677614</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.434613706822887</v>
+        <v>-3.434613706822864</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.223450549466635</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.782908187587666</v>
+        <v>3.382238148902796</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.596550531430882</v>
+        <v>6.686026265873984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.706321909171929</v>
+        <v>-2.238260614129655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.25789384314034</v>
+        <v>-1.363903403543774</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.055206244259017</v>
+        <v>-1.143040790661536</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.261809509946644</v>
+        <v>-7.325202068888164</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.76333616877411</v>
+        <v>2.218191424968403</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.525386210619305</v>
+        <v>4.011300631712636</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.571171635766</v>
+        <v>-3.715932141755915</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.66827069725949</v>
+        <v>12.55751351325042</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.96594665227072</v>
+        <v>16.06226677053181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.152163006834749</v>
+        <v>8.188566567373751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.501404585108772</v>
+        <v>6.941420028608916</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.991794108421853</v>
+        <v>7.169589182203022</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5159653198482992</v>
+        <v>0.3986747165266566</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.205901397264231</v>
+        <v>8.647513543654549</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.05180465962029</v>
+        <v>10.4192105142251</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.946963454263332</v>
+        <v>2.834733940716282</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.03515726313436359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.04216386683984145</v>
+        <v>-0.04216386683984118</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.07022834472897015</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04061199623540412</v>
+        <v>0.04766400495472509</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09477848644932568</v>
+        <v>0.09490877302412612</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0384024373951645</v>
+        <v>-0.03143845747415258</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0146844615824249</v>
+        <v>-0.01639907956146194</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01256998079386956</v>
+        <v>-0.01356688484768911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08702951594765099</v>
+        <v>-0.08796533080751834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02265970879778496</v>
+        <v>0.02848210798703241</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04542200605701573</v>
+        <v>0.05294145962850652</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.04656841855063128</v>
+        <v>-0.04913546794883234</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1943041019616392</v>
+        <v>0.1959095002605369</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2471355998772898</v>
+        <v>0.2476499892076457</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1267832255790869</v>
+        <v>0.1250469635288487</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.08151433973927709</v>
+        <v>0.08673917628862476</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08880858949699375</v>
+        <v>0.09199460124258782</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006338735514714124</v>
+        <v>0.004946019214715196</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1126398479062705</v>
+        <v>0.1191054512198428</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1389299666988277</v>
+        <v>0.1439931749973312</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.04056904848291567</v>
+        <v>0.0393075979893709</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>10.82002160467526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.870496281875237</v>
+        <v>5.870496281875259</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.293676923383906</v>
@@ -878,7 +878,7 @@
         <v>8.433716611125197</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.511052372825551</v>
+        <v>2.51105237282554</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.291347175215228</v>
+        <v>2.783984715558149</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.588935959048757</v>
+        <v>6.89889364934217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.288955150350258</v>
+        <v>0.855801210416102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.35874788041572</v>
+        <v>1.757365510250577</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.452656281449025</v>
+        <v>2.645170552211119</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.446514505986938</v>
+        <v>-4.58614686813771</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.476304578997364</v>
+        <v>3.701186510546251</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5.581778736346614</v>
+        <v>5.512692516707604</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.2930436269120513</v>
+        <v>-0.5339668690245998</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.05741333523856</v>
+        <v>11.51636541769219</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.34212448078839</v>
+        <v>14.82910223825263</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.42162471852983</v>
+        <v>10.32656890213821</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.708943509731103</v>
+        <v>8.754400243551814</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.663054994216173</v>
+        <v>9.715899397701905</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.923479513409241</v>
+        <v>2.738070940299492</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.558424336717009</v>
+        <v>9.352307662431841</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.31167178360934</v>
+        <v>11.32221970122258</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.492773713005471</v>
+        <v>5.454295939540292</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.165600790625689</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.08984814089683925</v>
+        <v>0.08984814089683958</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.0674599498230358</v>
@@ -983,7 +983,7 @@
         <v>0.1172481285264076</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.03490942426939232</v>
+        <v>0.03490942426939216</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04887483369148932</v>
+        <v>0.04374450967265898</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.09747993779566534</v>
+        <v>0.1006870762545052</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.01855152994832568</v>
+        <v>0.01249390394516265</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01759778510333456</v>
+        <v>0.0217523623881553</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03104215136475329</v>
+        <v>0.03311282402826353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05564787758896656</v>
+        <v>-0.05670377519795872</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04691558370701856</v>
+        <v>0.05031157121514415</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07562713374581671</v>
+        <v>0.07479208877077277</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.005094158675130405</v>
+        <v>-0.007085035546409946</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1874230160131702</v>
+        <v>0.1872339002392041</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.244713086499515</v>
+        <v>0.2322315816455621</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1635442378047596</v>
+        <v>0.1639587360842532</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1141109569706908</v>
+        <v>0.1152040893499491</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.126491052684971</v>
+        <v>0.1279690538171185</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03893359722070076</v>
+        <v>0.03581512601652602</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1360785723382166</v>
+        <v>0.1344178815525895</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1605804053851518</v>
+        <v>0.1611488405782258</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.07802190102841912</v>
+        <v>0.07701822754324977</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>14.90132544312668</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.607063890262198</v>
+        <v>5.607063890262188</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.774838348794141</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.203510455500199</v>
+        <v>4.114783840376448</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.491729968084544</v>
+        <v>9.771586680923077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02375994174509639</v>
+        <v>0.08972355215474294</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6358994444649367</v>
+        <v>-0.625437882481686</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2988783053051979</v>
+        <v>0.1890559091256064</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.495444489271964</v>
+        <v>-2.610261443704113</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.526034209730527</v>
+        <v>3.24171768985769</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.602462552750785</v>
+        <v>5.990558137571711</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1126548822549695</v>
+        <v>-0.3567670529472496</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.4410320202411</v>
+        <v>14.83149346890354</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.85067216436271</v>
+        <v>19.97545634863405</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.37967310289652</v>
+        <v>11.46274171655581</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.75180416353883</v>
+        <v>8.813569547793824</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.152657482114575</v>
+        <v>9.10277464287678</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.204572762902036</v>
+        <v>6.291297306153462</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.40885288544066</v>
+        <v>10.43033022031031</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.44512841425878</v>
+        <v>13.18132700239844</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.496363616363705</v>
+        <v>7.094095718880691</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2674194835881877</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1006244803995954</v>
+        <v>0.1006244803995952</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.05113399757423993</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07200373108070562</v>
+        <v>0.07073295464316585</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1641412491848556</v>
+        <v>0.1665022036461277</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.0004950172226508629</v>
+        <v>0.001784099591991603</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.007422819145474532</v>
+        <v>-0.006909783833441716</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.003516263891723502</v>
+        <v>0.002711295257394814</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03417041855555341</v>
+        <v>-0.03369653261447648</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05277063503543689</v>
+        <v>0.04819678166967243</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09821863617911267</v>
+        <v>0.0894713263521543</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.002212091265073748</v>
+        <v>-0.005312609977639231</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2927477699682716</v>
+        <v>0.2812233674991212</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.380163610874688</v>
+        <v>0.3818061569756676</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2129221164586469</v>
+        <v>0.2126448055586995</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1238373221495649</v>
+        <v>0.125954614393749</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1303979761770396</v>
+        <v>0.1278122486316123</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08619809239422646</v>
+        <v>0.08883197147474453</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1646273882008451</v>
+        <v>0.1662152347732533</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2149830835068981</v>
+        <v>0.209800874708465</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1197919118666734</v>
+        <v>0.1127070357529721</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>5.407830765256094</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.950123666745652</v>
+        <v>2.950123666745641</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>9.600423928808532</v>
@@ -1306,7 +1306,7 @@
         <v>8.210873113613426</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.876129068477486</v>
+        <v>4.876129068477464</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.193027984610441</v>
+        <v>5.255916419367619</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.132505606800073</v>
+        <v>7.224910559071572</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.313290767692275</v>
+        <v>2.522042493102672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.876704342248778</v>
+        <v>5.827178133768897</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.875288315088349</v>
+        <v>1.47099478397639</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.2262467711837848</v>
+        <v>-0.5099361608701101</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.95947633132772</v>
+        <v>6.865232481610247</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.274537670888504</v>
+        <v>5.43616364432265</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.950204403851079</v>
+        <v>1.71293249609749</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.83429914890475</v>
+        <v>13.74429641090159</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.5942683740225</v>
+        <v>15.65034382955888</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.27250423569267</v>
+        <v>11.77942432253966</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.14778146522933</v>
+        <v>13.28014042989583</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.535390067343169</v>
+        <v>9.021772161611768</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.354314631303279</v>
+        <v>6.498366726182038</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.70568250495693</v>
+        <v>12.40144946754359</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.24921082024331</v>
+        <v>11.25629003715522</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.783946457917066</v>
+        <v>7.694706544368719</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.07384972096625024</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04028709829546231</v>
+        <v>0.04028709829546216</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1427688348849433</v>
@@ -1411,7 +1411,7 @@
         <v>0.1221046900128065</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.0725133880563472</v>
+        <v>0.07251338805634688</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.08297049282855082</v>
+        <v>0.08473032618464124</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1119592550602226</v>
+        <v>0.1161361268946865</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.03664552424676305</v>
+        <v>0.03797260090428486</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.07771961193414878</v>
+        <v>0.07689769475079915</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02617670366615025</v>
+        <v>0.01991108392868136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.003021189983490384</v>
+        <v>-0.006914938121211502</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.10131400674593</v>
+        <v>0.09973144202672797</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07605178176453511</v>
+        <v>0.07981832347473306</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.02787789856090702</v>
+        <v>0.0249070530494694</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2397218087824813</v>
+        <v>0.2363924420365489</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2692687004835174</v>
+        <v>0.2691553104327028</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1897086993171457</v>
+        <v>0.1976096226504682</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1842945588432552</v>
+        <v>0.1869758231031729</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1351565438956977</v>
+        <v>0.1270177479982444</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08872125230580086</v>
+        <v>0.09035351860289209</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1952683882355338</v>
+        <v>0.1910432424946825</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1699013392421481</v>
+        <v>0.1724787035052895</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1191698103982168</v>
+        <v>0.1172778861639363</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>11.81544348140621</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.282972674374364</v>
+        <v>5.282972674374387</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.655053060920512</v>
@@ -1511,7 +1511,7 @@
         <v>4.901741508834512</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.3066860845147734</v>
+        <v>0.3066860845147956</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.131508146689591</v>
@@ -1520,7 +1520,7 @@
         <v>8.317526542732312</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.80637188617846</v>
+        <v>2.806371886178449</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.313279769532576</v>
+        <v>6.32944866341665</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.421566603117558</v>
+        <v>9.599782586411886</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.709511096533799</v>
+        <v>2.808041301927034</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.587122542775495</v>
+        <v>3.580005956826038</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.878895028644053</v>
+        <v>3.138938768488233</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.874262644678494</v>
+        <v>-1.666827724935764</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.536495926866865</v>
+        <v>5.597183322328463</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.950105233483018</v>
+        <v>6.752041739048392</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.288943446153656</v>
+        <v>1.144311903384822</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.90432616389296</v>
+        <v>10.95803084735888</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.08906324289586</v>
+        <v>14.31615035906212</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.646632774798786</v>
+        <v>7.830901095930656</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.554080016471616</v>
+        <v>7.52771140222428</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.72049763458701</v>
+        <v>6.920103089763506</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.243633735038869</v>
+        <v>2.008322192498226</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.638725860424895</v>
+        <v>8.666591115093569</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.7258352038433</v>
+        <v>9.697862457123177</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.453397614577217</v>
+        <v>4.404058643071532</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1892809877790679</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.08463214163641308</v>
+        <v>0.08463214163641344</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.07389400181738046</v>
@@ -1616,7 +1616,7 @@
         <v>0.0640505565659869</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004007435799870474</v>
+        <v>0.004007435799870764</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1024745799346433</v>
@@ -1625,7 +1625,7 @@
         <v>0.1195168007986346</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.04032552081007216</v>
+        <v>0.040325520810072</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.0993269532854537</v>
+        <v>0.09884424550159902</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1499706593242584</v>
+        <v>0.1529553000535902</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.04212068507497396</v>
+        <v>0.04507002304645084</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04622258573675245</v>
+        <v>0.0461359475718311</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03695518834689666</v>
+        <v>0.04003969157302917</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02399693861497681</v>
+        <v>-0.02143313504247309</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07904460391768928</v>
+        <v>0.07947126714110302</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.09884425638301961</v>
+        <v>0.09600779250855142</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.01839741972260701</v>
+        <v>0.016346644717102</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.178749683173061</v>
+        <v>0.1811522437000259</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2307966047986202</v>
+        <v>0.2367271579372315</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.124820573826781</v>
+        <v>0.1290972484632351</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.09992168053010719</v>
+        <v>0.09981703852576433</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08909369861910461</v>
+        <v>0.09181381871726355</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0295835361592378</v>
+        <v>0.02653462466332036</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1258331038942408</v>
+        <v>0.1262254657770013</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1420495491730491</v>
+        <v>0.1412986964869319</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.06492735416438095</v>
+        <v>0.06418473875066513</v>
       </c>
     </row>
     <row r="34">
